--- a/data/transformed_data_2010.xlsx
+++ b/data/transformed_data_2010.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20148" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20145" uniqueCount="48">
   <si>
     <t>source</t>
   </si>
@@ -28829,7 +28829,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29560,7 +29560,7 @@
         <v>33</v>
       </c>
       <c r="D52">
-        <v>200.0327139402561</v>
+        <v>111.9031392603131</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -29980,7 +29980,7 @@
         <v>6</v>
       </c>
       <c r="D82">
-        <v>561.6920124980115</v>
+        <v>1274.740389453914</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -29994,7 +29994,7 @@
         <v>7</v>
       </c>
       <c r="D83">
-        <v>3190.366503698436</v>
+        <v>2477.318126742533</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -30414,7 +30414,7 @@
         <v>11</v>
       </c>
       <c r="D113">
-        <v>3240.848487037898</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -30484,7 +30484,7 @@
         <v>46</v>
       </c>
       <c r="D118">
-        <v>492.9284870378979</v>
+        <v>56.07999999999993</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -30596,7 +30596,7 @@
         <v>11</v>
       </c>
       <c r="D126">
-        <v>2702.851512962101</v>
+        <v>2338.522048364154</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -30666,7 +30666,7 @@
         <v>46</v>
       </c>
       <c r="D131">
-        <v>411.099905565231</v>
+        <v>46.77044096728332</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -31072,7 +31072,7 @@
         <v>17</v>
       </c>
       <c r="D160">
-        <v>752.9879875019886</v>
+        <v>39.93961054608576</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -31136,13 +31136,13 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>801.1779516358465</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -31749,10 +31749,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B209" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C209" t="s">
         <v>17</v>
@@ -31763,10 +31763,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B210" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C210" t="s">
         <v>17</v>
@@ -31777,10 +31777,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B211" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C211" t="s">
         <v>17</v>
@@ -31791,10 +31791,10 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C212" t="s">
         <v>17</v>
@@ -31805,10 +31805,10 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B213" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C213" t="s">
         <v>17</v>
@@ -31819,10 +31819,10 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C214" t="s">
         <v>17</v>
@@ -31833,10 +31833,10 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B215" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C215" t="s">
         <v>17</v>
@@ -31847,10 +31847,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C216" t="s">
         <v>17</v>
@@ -31861,7 +31861,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B217" t="s">
         <v>33</v>
@@ -31875,10 +31875,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B218" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>17</v>
@@ -31889,7 +31889,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B219" t="s">
         <v>7</v>
@@ -31903,43 +31903,29 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B221" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C221" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D221">
-        <v>2830</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
-        <v>32</v>
-      </c>
-      <c r="B222" t="s">
-        <v>45</v>
-      </c>
-      <c r="C222" t="s">
-        <v>47</v>
-      </c>
-      <c r="D222">
         <v>30000</v>
       </c>
     </row>

--- a/data/transformed_data_2010.xlsx
+++ b/data/transformed_data_2010.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17538" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17535" uniqueCount="45">
   <si>
     <t>source</t>
   </si>
@@ -126,7 +126,7 @@
     <t>Imports of end-use goods</t>
   </si>
   <si>
-    <t>Imports of waste</t>
+    <t>Imports of loss</t>
   </si>
   <si>
     <t>Imports of generated scrap</t>
@@ -138,7 +138,7 @@
     <t>Reference flow start</t>
   </si>
   <si>
-    <t>Waste</t>
+    <t>Loss</t>
   </si>
   <si>
     <t>Exports of iron ore</t>
@@ -1210,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>15037.53684470578</v>
+        <v>15186.37837899481</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1448,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>37332.1271438</v>
+        <v>38536.390466684</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1546,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>2868.294106583082</v>
+        <v>2920.077429467085</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1644,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>63836.22</v>
+        <v>64988.7</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1826,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>392539</v>
+        <v>404934.9684210526</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1896,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>7850.780000000028</v>
+        <v>20246.74842105265</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1994,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>255149.5633001422</v>
+        <v>263206.9179306731</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2064,7 +2064,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>5102.991266002849</v>
+        <v>13160.34589653366</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2400,7 +2400,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>67580.1954556338</v>
+        <v>48479.97726122339</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2498,7 +2498,7 @@
         <v>16</v>
       </c>
       <c r="D140">
-        <v>22399.5633001423</v>
+        <v>41700.40635172569</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3939,7 +3939,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>257.9433631351353</v>
+        <v>310.7353830497868</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4163,7 +4163,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>8199.996802429665</v>
+        <v>8602</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4177,7 +4177,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1573.062570386447</v>
+        <v>1171.059372816111</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4555,7 +4555,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>8460</v>
+        <v>8727.157894736842</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4625,7 +4625,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>169.2000000000007</v>
+        <v>436.3578947368424</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4723,7 +4723,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>6737.702702702702</v>
+        <v>6950.47226173542</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4793,7 +4793,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>134.754054054054</v>
+        <v>347.5236130867715</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5165,13 +5165,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>402.003197570335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5179,13 +5179,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>829.138631425243</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5227,7 +5227,7 @@
         <v>16</v>
       </c>
       <c r="D140">
-        <v>419.3027027027038</v>
+        <v>899.230156472262</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5311,7 +5311,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>9641.450000000001</v>
+        <v>6992.7</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5479,7 +5479,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>5870.865752100088</v>
+        <v>3222.115752100087</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5694,10 +5694,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -5708,10 +5708,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -5955,7 +5955,7 @@
         <v>4</v>
       </c>
       <c r="D192">
-        <v>14558.39721756815</v>
+        <v>14558.39721756814</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6654,7 +6654,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1619.104635568765</v>
+        <v>1638.08952514645</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6892,7 +6892,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>15391.34990759369</v>
+        <v>15544.95492326768</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6990,7 +6990,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>749.140877742946</v>
+        <v>755.7458934169299</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7088,7 +7088,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>16672.74</v>
+        <v>16819.74</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7270,7 +7270,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>14122.59821676561</v>
+        <v>14197.56158180028</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7340,7 +7340,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1628.578216765611</v>
+        <v>1703.541581800284</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7438,7 +7438,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>13571.22178323439</v>
+        <v>13643.25841819971</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7508,7 +7508,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>1564.995040702381</v>
+        <v>1637.031675667708</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7844,7 +7844,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>8832.387249202669</v>
+        <v>8857.977154454342</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -9397,7 +9397,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1311.378386072351</v>
+        <v>1324.034979124139</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -9635,7 +9635,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>961.2239025093977</v>
+        <v>1063.627246292052</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -9733,7 +9733,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>61.64681295715786</v>
+        <v>66.05015673981188</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -9831,7 +9831,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>1372</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -10013,7 +10013,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>10769.57611118825</v>
+        <v>10817.66960518722</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -10083,7 +10083,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>2334.716111188251</v>
+        <v>2382.809605187216</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -10181,7 +10181,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>11175.56388881175</v>
+        <v>11225.47039481278</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -10251,7 +10251,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>2422.729436464662</v>
+        <v>2472.635942465698</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>6543.34132058532</v>
+        <v>6560.401257419761</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -10769,7 +10769,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>21282.3</v>
+        <v>19817.81004500337</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -10937,7 +10937,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>8690.959555197744</v>
+        <v>7226.469600201115</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -13512,7 +13512,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>2479.75</v>
+        <v>2384.715673667667</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -13680,7 +13680,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>3175.935971621213</v>
+        <v>3080.90164528888</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -16087,7 +16087,7 @@
         <v>16</v>
       </c>
       <c r="D134">
-        <v>259.5043775787462</v>
+        <v>488.5919884360424</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -16255,7 +16255,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>1235</v>
+        <v>1005.912389142704</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -24470,7 +24470,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>21113.95</v>
+        <v>20920.28028083365</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -24638,7 +24638,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>5659.748530743685</v>
+        <v>5466.078811577338</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -25166,7 +25166,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25841,7 +25841,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>111.9031392603131</v>
+        <v>200.0327139402561</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -26051,7 +26051,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>66.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -26065,7 +26065,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>1340.890389453914</v>
+        <v>1314.68</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -26079,7 +26079,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>2477.318126742533</v>
+        <v>2437.378516196447</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -26457,7 +26457,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>2804</v>
+        <v>3240.848487037898</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -26527,7 +26527,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>56.07999999999993</v>
+        <v>492.9284870378979</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -26625,7 +26625,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>2338.522048364154</v>
+        <v>2702.851512962101</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -26695,7 +26695,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>46.77044096728332</v>
+        <v>411.099905565231</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -27050,30 +27050,30 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>16</v>
       </c>
       <c r="D135">
-        <v>7.105427357601002E-15</v>
+        <v>66.15000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>26.21038945391433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -27081,13 +27081,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>752.9879875019885</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -27123,13 +27123,13 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D140">
-        <v>801.1779516358465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -27213,7 +27213,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>5626.400000000001</v>
+        <v>5325.321739130435</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -27381,7 +27381,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>3975.910918788367</v>
+        <v>3674.832657918802</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -27568,10 +27568,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C172" t="s">
         <v>16</v>
@@ -27596,10 +27596,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -27680,10 +27680,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C180" t="s">
         <v>16</v>
@@ -27694,10 +27694,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B181" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C181" t="s">
         <v>16</v>
@@ -27708,10 +27708,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C182" t="s">
         <v>16</v>
@@ -27722,10 +27722,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B183" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
         <v>16</v>
@@ -27736,10 +27736,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -27750,10 +27750,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B185" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C185" t="s">
         <v>16</v>
@@ -27764,10 +27764,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C186" t="s">
         <v>16</v>
@@ -27778,10 +27778,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B187" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s">
         <v>16</v>
@@ -27792,7 +27792,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B188" t="s">
         <v>31</v>
@@ -27806,10 +27806,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C189" t="s">
         <v>16</v>
@@ -27820,7 +27820,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
@@ -27834,29 +27834,43 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B191" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D191">
-        <v>2830</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
+        <v>29</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
         <v>30</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>42</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C193" t="s">
         <v>44</v>
       </c>
-      <c r="D192">
+      <c r="D193">
         <v>30000</v>
       </c>
     </row>
@@ -31285,7 +31299,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1618.062184221908</v>
+        <v>1620.218184221907</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -31509,7 +31523,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>21496.71191324064</v>
+        <v>22908.92</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -31523,7 +31537,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>12644.3609016489</v>
+        <v>11252.63348364607</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -31621,7 +31635,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>1983.266039707414</v>
+        <v>1984.146708463952</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -31719,7 +31733,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>44139.2</v>
+        <v>44158.8</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -31901,7 +31915,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>35368.06084312431</v>
+        <v>35378.26910682861</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -31971,7 +31985,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>4294.220843124309</v>
+        <v>4304.429106828607</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -32069,7 +32083,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>32539.07915687571</v>
+        <v>32548.4708931714</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -32139,7 +32153,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>3950.739412921233</v>
+        <v>3960.131149216922</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -32511,13 +32525,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>1412.208086759358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -32525,13 +32539,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1409.171418002814</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -32657,7 +32671,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>62355.15</v>
+        <v>59274.69503806292</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -32825,7 +32839,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>7012.184806961646</v>
+        <v>3931.729845024565</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -33040,10 +33054,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -33054,10 +33068,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -33315,7 +33329,7 @@
         <v>4</v>
       </c>
       <c r="D193">
-        <v>111070.1723603235</v>
+        <v>111070.1723603236</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -34630,7 +34644,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>6302</v>
+        <v>6501.01052631579</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -34700,7 +34714,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>126.04</v>
+        <v>325.0505263157902</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -34798,7 +34812,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>1590.428165007112</v>
+        <v>1640.652212323127</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -34868,7 +34882,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>31.80856330014217</v>
+        <v>82.03261061615649</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -35204,7 +35218,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>855.4462592451832</v>
+        <v>606.2116856133787</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -35302,7 +35316,7 @@
         <v>16</v>
       </c>
       <c r="D140">
-        <v>214.1281650071123</v>
+        <v>463.362738638918</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -36967,7 +36981,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>2793.717469021582</v>
+        <v>4587.12</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -36981,7 +36995,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>2333.305221678522</v>
+        <v>539.9026907001044</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -37969,13 +37983,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>1793.402530978417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -37983,13 +37997,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1793.402530978417</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -38498,10 +38512,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -38512,10 +38526,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -39472,7 +39486,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>269.0052876454611</v>
+        <v>270.1443810201222</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -39710,7 +39724,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>596.0164317908894</v>
+        <v>605.2327327313284</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -39808,7 +39822,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>27.65299895506791</v>
+        <v>28.04929989550681</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -39906,7 +39920,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>615.4399999999999</v>
+        <v>624.26</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -40088,7 +40102,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>1926.522352285848</v>
+        <v>1928.940581179931</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -40158,7 +40172,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>185.0623522858482</v>
+        <v>187.4805811799311</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -40256,7 +40270,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>5100.077647714151</v>
+        <v>5106.479418820069</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -40326,7 +40340,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>489.9150872589589</v>
+        <v>496.3168583648767</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -40662,7 +40676,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>1370.102416950205</v>
+        <v>1371.637811265304</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -44958,7 +44972,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1265.781375426241</v>
+        <v>1266.667336939865</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -45196,7 +45210,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1920.018753957487</v>
+        <v>1927.186988022273</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -45294,7 +45308,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>104.7115151515154</v>
+        <v>105.0197492163011</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -45392,7 +45406,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>2330.44</v>
+        <v>2337.3</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -45574,7 +45588,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>3977.695894464014</v>
+        <v>3980.688571942653</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -45644,7 +45658,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>438.9158944640144</v>
+        <v>441.908571942653</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -45742,7 +45756,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>5140.224105535985</v>
+        <v>5144.091428057348</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -45812,7 +45826,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>567.1942051092428</v>
+        <v>571.0615276306053</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -46148,7 +46162,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>9547.071127332816</v>
+        <v>9548.265322911226</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -51802,7 +51816,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>277802.85</v>
+        <v>267488.2655889145</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -51970,7 +51984,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>12513.55242527928</v>
+        <v>2198.968014193757</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -52498,7 +52512,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -54371,13 +54385,13 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C134" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>549.2237299829794</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -54545,7 +54559,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>31181.15</v>
+        <v>30150.91212590914</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -54713,7 +54727,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>481.0141441078813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -54872,10 +54886,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B170" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C170" t="s">
         <v>16</v>
@@ -54886,10 +54900,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C171" t="s">
         <v>16</v>
@@ -54900,10 +54914,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>16</v>
@@ -54914,10 +54928,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C173" t="s">
         <v>16</v>
@@ -54928,10 +54942,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -54942,10 +54956,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -54956,10 +54970,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>16</v>
@@ -54970,10 +54984,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C177" t="s">
         <v>16</v>
@@ -54984,10 +54998,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>16</v>
@@ -54998,10 +55012,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C179" t="s">
         <v>16</v>
@@ -55012,10 +55026,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B180" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
         <v>16</v>
@@ -55026,10 +55040,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C181" t="s">
         <v>16</v>
@@ -55040,10 +55054,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B182" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s">
         <v>16</v>
@@ -55054,10 +55068,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C183" t="s">
         <v>16</v>
@@ -55068,10 +55082,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B184" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -55082,10 +55096,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C185" t="s">
         <v>16</v>
@@ -55096,10 +55110,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B186" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C186" t="s">
         <v>16</v>
@@ -55110,10 +55124,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C187" t="s">
         <v>16</v>
@@ -55124,10 +55138,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B188" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
         <v>16</v>
@@ -55138,10 +55152,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C189" t="s">
         <v>16</v>
@@ -55152,7 +55166,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B190" t="s">
         <v>31</v>
@@ -55166,10 +55180,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B191" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>16</v>
@@ -55180,7 +55194,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -55194,43 +55208,29 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>36900</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B194" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C194" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D194">
-        <v>36900</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>30</v>
-      </c>
-      <c r="B195" t="s">
-        <v>42</v>
-      </c>
-      <c r="C195" t="s">
-        <v>44</v>
-      </c>
-      <c r="D195">
         <v>30000</v>
       </c>
     </row>
@@ -57288,7 +57288,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>1829.75</v>
+        <v>1756.408094435076</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -57456,7 +57456,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>1822.490263661065</v>
+        <v>1749.148358096141</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -61388,7 +61388,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>5093.139067159362</v>
+        <v>5142.2466482003</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -61626,7 +61626,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>23699.288463326</v>
+        <v>24096.6134372027</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -61724,7 +61724,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>1032.804284221525</v>
+        <v>1049.889258098225</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -61822,7 +61822,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>22985.9</v>
+        <v>23366.14</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -62004,7 +62004,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>32464.95878568011</v>
+        <v>32585.98495794033</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -62074,7 +62074,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>2525.958785680108</v>
+        <v>2646.984957940331</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -62172,7 +62172,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>69533.44121431987</v>
+        <v>69792.65504205966</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -62242,7 +62242,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>5410.09794262713</v>
+        <v>5669.31177036692</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -62578,7 +62578,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>31431.39626055905</v>
+        <v>31497.58881547668</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -64131,7 +64131,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>345.4165070810227</v>
+        <v>348.7072212744874</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -64369,7 +64369,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1032.881616993403</v>
+        <v>1059.506486376893</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -64467,7 +64467,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>65.6538557993731</v>
+        <v>66.79872518286311</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -64565,7 +64565,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>1461.18</v>
+        <v>1486.66</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -64747,7 +64747,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>1026.830033237482</v>
+        <v>1032.438768713149</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -64817,7 +64817,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>161.4900332374824</v>
+        <v>167.0987687131493</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -64915,7 +64915,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>3637.969966762517</v>
+        <v>3657.84123128685</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -64985,7 +64985,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>572.1452156956607</v>
+        <v>592.0164802199938</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -65321,7 +65321,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>1988.902550290431</v>
+        <v>1993.338133867385</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -65335,7 +65335,7 @@
         <v>16</v>
       </c>
       <c r="D134">
-        <v>570.6057512327643</v>
+        <v>1516.817080537903</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -65503,7 +65503,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>13437.45</v>
+        <v>12491.23867069486</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -66860,7 +66860,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>8583.668595698371</v>
+        <v>8583.795161628892</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -67098,7 +67098,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>47141.98615488389</v>
+        <v>47143.01018832171</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -67196,7 +67196,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>2172.477722048068</v>
+        <v>2172.521755485897</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -67294,7 +67294,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>48350.26</v>
+        <v>48351.24</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -67476,7 +67476,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>24390.99938935091</v>
+        <v>24391.28812907425</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -67546,7 +67546,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>2745.739389350907</v>
+        <v>2746.02812907425</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -67644,7 +67644,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>58393.5206106491</v>
+        <v>58394.21187092576</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -67714,7 +67714,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>6573.465361715957</v>
+        <v>6574.156621992624</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -68050,7 +68050,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>59916.13238406775</v>
+        <v>59916.30298343609</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -68232,7 +68232,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>6468.150000000001</v>
+        <v>6241.809619238476</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -68400,7 +68400,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>695.6079853074361</v>
+        <v>469.267604545912</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -69603,7 +69603,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>3167.568673939484</v>
+        <v>3375.136799988821</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -69841,7 +69841,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>13082.3224188618</v>
+        <v>14761.73725689733</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -69939,7 +69939,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>719.506374085684</v>
+        <v>791.7212121212142</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -70037,7 +70037,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>16013.2</v>
+        <v>17620.4</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -70219,7 +70219,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>20859.18841819262</v>
+        <v>21543.32874988944</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -70289,7 +70289,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>3234.868418192622</v>
+        <v>3919.008749889439</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -70387,7 +70387,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>28143.75158180738</v>
+        <v>29066.81125011056</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -70457,7 +70457,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>4364.56737128106</v>
+        <v>5287.627039584248</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -70793,7 +70793,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>17678.73087504795</v>
+        <v>17958.51383913281</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -70975,7 +70975,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>12964.9</v>
+        <v>12059.04777899068</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -71143,7 +71143,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>5301.128237898758</v>
+        <v>4395.276016889438</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -72346,7 +72346,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>2303.295458150937</v>
+        <v>2333.165017753156</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -72584,7 +72584,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>18987.02460916422</v>
+        <v>19228.69650049128</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -72682,7 +72682,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>1081.681400208985</v>
+        <v>1092.073291536046</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -72780,7 +72780,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>24073.7</v>
+        <v>24304.98</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -72962,7 +72962,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>19867.30098508023</v>
+        <v>19940.93789605472</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -73032,7 +73032,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1803.940985080229</v>
+        <v>1877.577896054721</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -73130,7 +73130,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>42532.23901491977</v>
+        <v>42689.88210394527</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -73200,7 +73200,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>3861.906013497297</v>
+        <v>4019.549102522797</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -73536,7 +73536,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>9295.758000777289</v>
+        <v>9336.019451706576</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -75089,7 +75089,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>2684.46502092405</v>
+        <v>2685.73068022923</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -75327,7 +75327,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>11529.01826291739</v>
+        <v>11539.25859729565</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -75425,7 +75425,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>581.4615464994786</v>
+        <v>581.9018808777437</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -75523,7 +75523,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>12940.9</v>
+        <v>12950.7</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -75705,7 +75705,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>14965.58981493808</v>
+        <v>14969.04758851424</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -75775,7 +75775,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>2035.469814938086</v>
+        <v>2038.927588514238</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -75873,7 +75873,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>27449.79018506192</v>
+        <v>27456.13241148577</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -75943,7 +75943,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>3733.445860737593</v>
+        <v>3739.788087161443</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -76279,7 +76279,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>14632.04198186483</v>
+        <v>14633.74797554827</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -76461,7 +76461,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>14.3</v>
+        <v>2.309996336649136</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -76629,7 +76629,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>27122.35194535574</v>
+        <v>27110.36194169239</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -77157,7 +77157,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -78070,7 +78070,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>20529.18729832941</v>
+        <v>20497.01155507728</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -78168,7 +78168,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>952.6947610159732</v>
+        <v>920.5190177638469</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -79072,13 +79072,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>32.17574325212524</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -79615,10 +79615,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>16</v>
@@ -79629,10 +79629,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C177" t="s">
         <v>16</v>
@@ -79643,10 +79643,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>16</v>
@@ -79657,10 +79657,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C179" t="s">
         <v>16</v>
@@ -79671,10 +79671,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B180" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
         <v>16</v>
@@ -79685,10 +79685,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C181" t="s">
         <v>16</v>
@@ -79699,10 +79699,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B182" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s">
         <v>16</v>
@@ -79713,10 +79713,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C183" t="s">
         <v>16</v>
@@ -79727,10 +79727,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B184" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -79741,10 +79741,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C185" t="s">
         <v>16</v>
@@ -79755,10 +79755,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B186" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C186" t="s">
         <v>16</v>
@@ -79769,10 +79769,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C187" t="s">
         <v>16</v>
@@ -79783,10 +79783,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B188" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
         <v>16</v>
@@ -79797,10 +79797,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C189" t="s">
         <v>16</v>
@@ -79811,7 +79811,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B190" t="s">
         <v>31</v>
@@ -79825,10 +79825,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B191" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>16</v>
@@ -79839,7 +79839,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -79853,43 +79853,29 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B194" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C194" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D194">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>30</v>
-      </c>
-      <c r="B195" t="s">
-        <v>42</v>
-      </c>
-      <c r="C195" t="s">
-        <v>44</v>
-      </c>
-      <c r="D195">
         <v>30000</v>
       </c>
     </row>
@@ -80575,7 +80561,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>812.429303675347</v>
+        <v>816.4794134519198</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -80813,7 +80799,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1480.271340320345</v>
+        <v>1513.040410330796</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -80911,7 +80897,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>342.580146290491</v>
+        <v>343.9892163009408</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -81009,7 +80995,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>7624.4</v>
+        <v>7655.76</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -81191,7 +81177,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>10931.28182171982</v>
+        <v>10944.14073501229</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -81261,7 +81247,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>897.0618217198171</v>
+        <v>909.920735012287</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -81359,7 +81345,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>15727.65817828018</v>
+        <v>15746.15926498771</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -81429,7 +81415,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>1290.670383116598</v>
+        <v>1309.171469824129</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -81765,7 +81751,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>2312.117246343839</v>
+        <v>2317.576426130861</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -81779,7 +81765,7 @@
         <v>16</v>
       </c>
       <c r="D134">
-        <v>16456.91601590018</v>
+        <v>11341.57800128125</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -81947,7 +81933,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>202105.15</v>
+        <v>207220.4880146189</v>
       </c>
     </row>
     <row r="147" spans="1:4">

--- a/data/transformed_data_2010.xlsx
+++ b/data/transformed_data_2010.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>511713.1783493598</v>
+        <v>518591.8375493598</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>60769.8</v>
+        <v>52262.028</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11636.52</v>
+        <v>10007.4072</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5101,7 +5101,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>20043.02303783784</v>
+        <v>19802.51143783784</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5437,7 +5437,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>39.2</v>
+        <v>33.712</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5605,7 +5605,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1757.14</v>
+        <v>1511.1404</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7816,7 +7816,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19728.49419857753</v>
+        <v>20146.13099857752</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8152,7 +8152,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>11806.06</v>
+        <v>10153.2116</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8320,7 +8320,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8822.940000000001</v>
+        <v>7587.7284</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10559,7 +10559,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5021.479629018493</v>
+        <v>5095.430429018494</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10895,7 +10895,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1906.1</v>
+        <v>1639.246</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11063,7 +11063,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1377.88</v>
+        <v>1184.9768</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13302,7 +13302,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14474.61009274538</v>
+        <v>14637.46649274538</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13638,7 +13638,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8352.539999999999</v>
+        <v>7183.184399999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13806,7 +13806,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7189.28</v>
+        <v>6182.7808</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16045,7 +16045,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11799.2588</v>
+        <v>11706.9232</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16381,7 +16381,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>458.64</v>
+        <v>394.4304</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16549,7 +16549,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1118.18</v>
+        <v>961.6347999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18774,7 +18774,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14411.71338605974</v>
+        <v>14013.28458605974</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19110,7 +19110,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8436.82</v>
+        <v>7255.665199999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19278,7 +19278,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11282.74</v>
+        <v>9703.1564</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21517,7 +21517,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10958.42345604552</v>
+        <v>11114.69425604552</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21853,7 +21853,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7906.639999999999</v>
+        <v>6799.710399999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22021,7 +22021,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6790.42</v>
+        <v>5839.7612</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24260,7 +24260,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17235.46422475107</v>
+        <v>16429.27702475106</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24596,7 +24596,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4739.28</v>
+        <v>4075.7808</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10497.76</v>
+        <v>9028.0736</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27003,7 +27003,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10296.28078236131</v>
+        <v>9934.758782361308</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27339,7 +27339,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1437.66</v>
+        <v>1236.3876</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27507,7 +27507,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4019.96</v>
+        <v>3457.1656</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29718,7 +29718,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6745.09306230441</v>
+        <v>6946.365462304409</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30054,7 +30054,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6663.02</v>
+        <v>5730.197200000001</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30222,7 +30222,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5225.36</v>
+        <v>4493.8096</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32461,7 +32461,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>58598.26377980085</v>
+        <v>58470.39337980085</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32797,7 +32797,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2488.22</v>
+        <v>2139.8692</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32965,7 +32965,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3401.58</v>
+        <v>2925.3588</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35190,7 +35190,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9337.742057467993</v>
+        <v>9117.261657467994</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35526,7 +35526,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>313.6</v>
+        <v>269.696</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35694,7 +35694,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1888.46</v>
+        <v>1624.0756</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37919,7 +37919,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8764.928739687055</v>
+        <v>8459.795939687056</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38255,7 +38255,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>271.46</v>
+        <v>233.4556</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38423,7 +38423,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2450.98</v>
+        <v>2107.8428</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40648,7 +40648,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3343.419801991465</v>
+        <v>3332.443801991466</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -40984,7 +40984,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3125.22</v>
+        <v>2687.6892</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41152,7 +41152,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3203.62</v>
+        <v>2755.1132</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43391,7 +43391,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3245.031175533428</v>
+        <v>3205.380375533428</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43727,7 +43727,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5361.58</v>
+        <v>4610.958799999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43895,7 +43895,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5644.8</v>
+        <v>4854.528</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46134,7 +46134,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11271.927714367</v>
+        <v>10749.744514367</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46470,7 +46470,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5534.059999999999</v>
+        <v>4759.2916</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46638,7 +46638,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9263.940000000001</v>
+        <v>7966.9884</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48877,7 +48877,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3966.473077667139</v>
+        <v>3895.40347766714</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49213,7 +49213,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5034.26</v>
+        <v>4329.4636</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49381,7 +49381,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5541.9</v>
+        <v>4766.034</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51606,7 +51606,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9155.328119487909</v>
+        <v>8667.444919487907</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51942,7 +51942,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>653.66</v>
+        <v>562.1476</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52110,7 +52110,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4138.54</v>
+        <v>3559.1444</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54349,7 +54349,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3633.194175817923</v>
+        <v>3591.348175817923</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54685,7 +54685,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1212.26</v>
+        <v>1042.5436</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54853,7 +54853,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1511.16</v>
+        <v>1299.5976</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57078,7 +57078,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7923.906289615932</v>
+        <v>7798.231089615932</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57414,7 +57414,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1967.84</v>
+        <v>1692.3424</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57582,7 +57582,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2865.52</v>
+        <v>2464.3472</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59821,7 +59821,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10936.54294167852</v>
+        <v>11101.32014167852</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60157,7 +60157,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3613.26</v>
+        <v>3107.4036</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60325,7 +60325,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2436.28</v>
+        <v>2095.2008</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62550,7 +62550,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>37027.01201365576</v>
+        <v>39853.33201365576</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62886,7 +62886,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>26001.36</v>
+        <v>22361.1696</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63054,7 +63054,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5813.36</v>
+        <v>4999.4896</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65293,7 +65293,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3492.972485917497</v>
+        <v>3452.635685917497</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65629,7 +65629,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2523.5</v>
+        <v>2170.21</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65797,7 +65797,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2811.62</v>
+        <v>2417.9932</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68022,7 +68022,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>78439.24151408249</v>
+        <v>76885.72591408249</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68358,7 +68358,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>18308.36</v>
+        <v>15745.1896</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68526,7 +68526,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>29404.9</v>
+        <v>25288.214</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70765,7 +70765,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>36605.71202105263</v>
+        <v>35778.12162105263</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71101,7 +71101,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1275.96</v>
+        <v>1097.3256</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71269,7 +71269,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7187.32</v>
+        <v>6181.0952</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73508,7 +73508,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>29156.06838122333</v>
+        <v>31711.00678122333</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73844,7 +73844,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>24107.02</v>
+        <v>20732.0372</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -74012,7 +74012,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5857.46</v>
+        <v>5037.4156</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76251,7 +76251,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>25491.15451891891</v>
+        <v>26364.02091891892</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76587,7 +76587,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>26302.22</v>
+        <v>22619.9092</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76755,7 +76755,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>20067.46</v>
+        <v>17258.0156</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -78994,7 +78994,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19365.35771611487</v>
+        <v>19536.30891611487</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79330,7 +79330,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4634.42</v>
+        <v>3985.6012</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79498,7 +79498,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3413.34</v>
+        <v>2935.4724</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81723,7 +81723,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>25014.35630384068</v>
+        <v>24821.31590384068</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82059,7 +82059,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2595.04</v>
+        <v>2231.7344</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82227,7 +82227,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3973.9</v>
+        <v>3417.554</v>
       </c>
     </row>
     <row r="168" spans="1:4">
